--- a/assets/generated/model3/ProductProductionFinishTime.xlsx
+++ b/assets/generated/model3/ProductProductionFinishTime.xlsx
@@ -348,17 +348,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>3712</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1894</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>884</v>
+        <v>2295</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/ProductProductionFinishTime.xlsx
+++ b/assets/generated/model3/ProductProductionFinishTime.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,17 +348,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>1080</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2295</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/ProductProductionFinishTime.xlsx
+++ b/assets/generated/model3/ProductProductionFinishTime.xlsx
@@ -348,12 +348,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/ProductProductionFinishTime.xlsx
+++ b/assets/generated/model3/ProductProductionFinishTime.xlsx
@@ -353,7 +353,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>42</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/assets/generated/model3/ProductProductionFinishTime.xlsx
+++ b/assets/generated/model3/ProductProductionFinishTime.xlsx
@@ -348,12 +348,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1">
-        <v>41</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
